--- a/data/lsd/mic/2025-10-17b 14.29.57 Run.xlsx
+++ b/data/lsd/mic/2025-10-17b 14.29.57 Run.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nvanreet\OneDrive - ITG\Documenten\GitHub\biobank-dashboard\data\mic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nvanreet\OneDrive - ITG\Documenten\GitHub\biobank-dashboard\data\lsd\mic\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -72,7 +72,7 @@
     <t>File Exported</t>
   </si>
   <si>
-    <t>20/11/2025 10:35:21</t>
+    <t>6/01/2026 11:55:09</t>
   </si>
   <si>
     <t>Software Version</t>
@@ -84,7 +84,7 @@
     <t>File</t>
   </si>
   <si>
-    <t>C:\Users\nvanreet\OneDrive - ITG\Documenten\GitHub\biobank-dashboard\data\mic\2025-10-17b 14.29.57 Run.micrun</t>
+    <t>C:\Users\nvanreet\ITG\THA - Digital Management System - CRT Dipumba Upload - CRT Dipumba Upload\03 - Biologie Moléculaire\0301 - MIC\2025-10-17b 14.29.57 Run.micrun</t>
   </si>
   <si>
     <t>File Status</t>
@@ -190,7 +190,7 @@
 	Method  changed from "LinRegPCR" to "Dynamic"</t>
   </si>
   <si>
-    <t>20/11/2025 10:35:11</t>
+    <t>6/01/2026 11:55:01</t>
   </si>
   <si>
     <t>Cycling "RNAseP-RNA - 1" removed</t>
@@ -27357,7 +27357,7 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="99.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="144.33203" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.777344" bestFit="1" customWidth="1"/>
   </cols>
